--- a/Examples/Ej2_EdadesUsoBicimad.xlsx
+++ b/Examples/Ej2_EdadesUsoBicimad.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmorales\Dropbox\Proyectos\BiciMad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="11340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="11340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,11 @@
   <definedNames>
     <definedName name="EdadesUsoBiciMad" localSheetId="0">Hoja1!$A$1:$H$540</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>FECHA</t>
   </si>
@@ -73,11 +71,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,18 +114,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -128,9 +157,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -183,26 +212,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -242,88 +251,88 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,93 +344,93 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>335</c:v>
+                  <c:v>335.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149</c:v>
+                  <c:v>149.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162</c:v>
+                  <c:v>162.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>317</c:v>
+                  <c:v>317.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>294</c:v>
+                  <c:v>294.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>422</c:v>
+                  <c:v>422.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>378</c:v>
+                  <c:v>378.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>343</c:v>
+                  <c:v>343.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>452</c:v>
+                  <c:v>452.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>426</c:v>
+                  <c:v>426.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>261</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>184</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>285</c:v>
+                  <c:v>285.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>439</c:v>
+                  <c:v>439.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>370</c:v>
+                  <c:v>370.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>423</c:v>
+                  <c:v>423.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>319</c:v>
+                  <c:v>319.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>279</c:v>
+                  <c:v>279.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>304</c:v>
+                  <c:v>304.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>434</c:v>
+                  <c:v>434.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>321</c:v>
+                  <c:v>321.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-045E-4EFE-A759-6961CE0BFF16}"/>
             </c:ext>
@@ -458,88 +467,88 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,93 +560,93 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>242</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>270</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>232</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>263</c:v>
+                  <c:v>263.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>221</c:v>
+                  <c:v>221.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>160</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>193</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>195</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>242</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>267</c:v>
+                  <c:v>267.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>229</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>205</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>265</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>291</c:v>
+                  <c:v>291.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>204</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>204</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>284</c:v>
+                  <c:v>284.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>278</c:v>
+                  <c:v>278.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>235</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>235</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>201</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>195</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>252</c:v>
+                  <c:v>252.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-045E-4EFE-A759-6961CE0BFF16}"/>
             </c:ext>
@@ -674,88 +683,88 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,93 +776,93 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1259</c:v>
+                  <c:v>1259.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1112</c:v>
+                  <c:v>1112.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1041</c:v>
+                  <c:v>1041.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1344</c:v>
+                  <c:v>1344.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1461</c:v>
+                  <c:v>1461.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1618</c:v>
+                  <c:v>1618.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1680</c:v>
+                  <c:v>1680.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1603</c:v>
+                  <c:v>1603.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1456</c:v>
+                  <c:v>1456.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1360</c:v>
+                  <c:v>1360.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1251</c:v>
+                  <c:v>1251.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1353</c:v>
+                  <c:v>1353.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1509</c:v>
+                  <c:v>1509.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1506</c:v>
+                  <c:v>1506.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1572</c:v>
+                  <c:v>1572.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1148</c:v>
+                  <c:v>1148.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1110</c:v>
+                  <c:v>1110.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1333</c:v>
+                  <c:v>1333.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1441</c:v>
+                  <c:v>1441.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1441</c:v>
+                  <c:v>1441.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1476</c:v>
+                  <c:v>1476.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1324</c:v>
+                  <c:v>1324.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1230</c:v>
+                  <c:v>1230.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1198</c:v>
+                  <c:v>1198.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1195</c:v>
+                  <c:v>1195.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1337</c:v>
+                  <c:v>1337.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1506</c:v>
+                  <c:v>1506.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1507</c:v>
+                  <c:v>1507.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-045E-4EFE-A759-6961CE0BFF16}"/>
             </c:ext>
@@ -890,88 +899,88 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,93 +992,93 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>5651</c:v>
+                  <c:v>5651.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4201</c:v>
+                  <c:v>4201.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4098</c:v>
+                  <c:v>4098.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5942</c:v>
+                  <c:v>5942.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6278</c:v>
+                  <c:v>6278.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6645</c:v>
+                  <c:v>6645.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6583</c:v>
+                  <c:v>6583.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5983</c:v>
+                  <c:v>5983.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4002</c:v>
+                  <c:v>4002.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3713</c:v>
+                  <c:v>3713.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5685</c:v>
+                  <c:v>5685.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6288</c:v>
+                  <c:v>6288.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6540</c:v>
+                  <c:v>6540.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6496</c:v>
+                  <c:v>6496.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5750</c:v>
+                  <c:v>5750.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4072</c:v>
+                  <c:v>4072.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3674</c:v>
+                  <c:v>3674.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5524</c:v>
+                  <c:v>5524.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6027</c:v>
+                  <c:v>6027.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6154</c:v>
+                  <c:v>6154.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6128</c:v>
+                  <c:v>6128.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6004</c:v>
+                  <c:v>6004.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4396</c:v>
+                  <c:v>4396.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4304</c:v>
+                  <c:v>4304.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5522</c:v>
+                  <c:v>5522.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6226</c:v>
+                  <c:v>6226.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6270</c:v>
+                  <c:v>6270.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6525</c:v>
+                  <c:v>6525.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-045E-4EFE-A759-6961CE0BFF16}"/>
             </c:ext>
@@ -1106,88 +1115,88 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,93 +1208,93 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>2436</c:v>
+                  <c:v>2436.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1499</c:v>
+                  <c:v>1499.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1690</c:v>
+                  <c:v>1690.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2960</c:v>
+                  <c:v>2960.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3184</c:v>
+                  <c:v>3184.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3216</c:v>
+                  <c:v>3216.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3249</c:v>
+                  <c:v>3249.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2922</c:v>
+                  <c:v>2922.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1588</c:v>
+                  <c:v>1588.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1535</c:v>
+                  <c:v>1535.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2884</c:v>
+                  <c:v>2884.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3023</c:v>
+                  <c:v>3023.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3275</c:v>
+                  <c:v>3275.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3371</c:v>
+                  <c:v>3371.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2997</c:v>
+                  <c:v>2997.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1822</c:v>
+                  <c:v>1822.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1723</c:v>
+                  <c:v>1723.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2798</c:v>
+                  <c:v>2798.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3133</c:v>
+                  <c:v>3133.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3176</c:v>
+                  <c:v>3176.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3144</c:v>
+                  <c:v>3144.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2890</c:v>
+                  <c:v>2890.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2038</c:v>
+                  <c:v>2038.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1751</c:v>
+                  <c:v>1751.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2947</c:v>
+                  <c:v>2947.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3382</c:v>
+                  <c:v>3382.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3446</c:v>
+                  <c:v>3446.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3383</c:v>
+                  <c:v>3383.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-045E-4EFE-A759-6961CE0BFF16}"/>
             </c:ext>
@@ -1322,88 +1331,88 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,93 +1424,93 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-045E-4EFE-A759-6961CE0BFF16}"/>
             </c:ext>
@@ -1517,11 +1526,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="635663184"/>
-        <c:axId val="635659248"/>
+        <c:axId val="-2140533368"/>
+        <c:axId val="-2140529864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="635663184"/>
+        <c:axId val="-2140533368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,10 +1570,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635659248"/>
+        <c:crossAx val="-2140529864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1572,7 +1581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635659248"/>
+        <c:axId val="-2140529864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,10 +1629,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635663184"/>
+        <c:crossAx val="-2140533368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,7 +1672,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1693,7 +1702,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1705,9 +1714,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1753,26 +1762,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1812,96 +1801,96 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191</c:v>
+                  <c:v>191.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197</c:v>
+                  <c:v>197.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>237</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>223</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>118</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>143</c:v>
+                  <c:v>143.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>288</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>239</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>201</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>272</c:v>
+                  <c:v>272.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>123</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5483-4EFE-B6BA-21A797E0DDFC}"/>
             </c:ext>
@@ -1938,96 +1927,96 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>161</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>159</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>179</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>185</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>141</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>157</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>154</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>180</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>185</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>166</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>140</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>154</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>158</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>175</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5483-4EFE-B6BA-21A797E0DDFC}"/>
             </c:ext>
@@ -2064,96 +2053,96 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>621</c:v>
+                  <c:v>621.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>751</c:v>
+                  <c:v>751.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>924</c:v>
+                  <c:v>924.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>918</c:v>
+                  <c:v>918.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>988</c:v>
+                  <c:v>988.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>840</c:v>
+                  <c:v>840.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>728</c:v>
+                  <c:v>728.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>692</c:v>
+                  <c:v>692.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>886</c:v>
+                  <c:v>886.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>947</c:v>
+                  <c:v>947.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>952</c:v>
+                  <c:v>952.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>985</c:v>
+                  <c:v>985.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>845</c:v>
+                  <c:v>845.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>793</c:v>
+                  <c:v>793.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>821</c:v>
+                  <c:v>821.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>879</c:v>
+                  <c:v>879.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>954</c:v>
+                  <c:v>954.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>996</c:v>
+                  <c:v>996.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>958</c:v>
+                  <c:v>958.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>852</c:v>
+                  <c:v>852.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>875</c:v>
+                  <c:v>875.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>907</c:v>
+                  <c:v>907.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>922</c:v>
+                  <c:v>922.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>977</c:v>
+                  <c:v>977.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1075</c:v>
+                  <c:v>1075.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>167</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5483-4EFE-B6BA-21A797E0DDFC}"/>
             </c:ext>
@@ -2190,96 +2179,96 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2670</c:v>
+                  <c:v>2670.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2721</c:v>
+                  <c:v>2721.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4516</c:v>
+                  <c:v>4516.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4953</c:v>
+                  <c:v>4953.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5016</c:v>
+                  <c:v>5016.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4968</c:v>
+                  <c:v>4968.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4428</c:v>
+                  <c:v>4428.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2471</c:v>
+                  <c:v>2471.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2839</c:v>
+                  <c:v>2839.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4751</c:v>
+                  <c:v>4751.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5139</c:v>
+                  <c:v>5139.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5276</c:v>
+                  <c:v>5276.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5295</c:v>
+                  <c:v>5295.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5102</c:v>
+                  <c:v>5102.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3311</c:v>
+                  <c:v>3311.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3068</c:v>
+                  <c:v>3068.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4650</c:v>
+                  <c:v>4650.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4914</c:v>
+                  <c:v>4914.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5402</c:v>
+                  <c:v>5402.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5449</c:v>
+                  <c:v>5449.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5158</c:v>
+                  <c:v>5158.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3471</c:v>
+                  <c:v>3471.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3203</c:v>
+                  <c:v>3203.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4888</c:v>
+                  <c:v>4888.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5256</c:v>
+                  <c:v>5256.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4949</c:v>
+                  <c:v>4949.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5205</c:v>
+                  <c:v>5205.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>655</c:v>
+                  <c:v>655.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5483-4EFE-B6BA-21A797E0DDFC}"/>
             </c:ext>
@@ -2316,96 +2305,96 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1699</c:v>
+                  <c:v>1699.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1605</c:v>
+                  <c:v>1605.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3274</c:v>
+                  <c:v>3274.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3437</c:v>
+                  <c:v>3437.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3452</c:v>
+                  <c:v>3452.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3378</c:v>
+                  <c:v>3378.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2837</c:v>
+                  <c:v>2837.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1450</c:v>
+                  <c:v>1450.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1687</c:v>
+                  <c:v>1687.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3309</c:v>
+                  <c:v>3309.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3599</c:v>
+                  <c:v>3599.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3659</c:v>
+                  <c:v>3659.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3724</c:v>
+                  <c:v>3724.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3478</c:v>
+                  <c:v>3478.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1944</c:v>
+                  <c:v>1944.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1772</c:v>
+                  <c:v>1772.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3232</c:v>
+                  <c:v>3232.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3381</c:v>
+                  <c:v>3381.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3832</c:v>
+                  <c:v>3832.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3687</c:v>
+                  <c:v>3687.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3522</c:v>
+                  <c:v>3522.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1904</c:v>
+                  <c:v>1904.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3275</c:v>
+                  <c:v>3275.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3641</c:v>
+                  <c:v>3641.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3475</c:v>
+                  <c:v>3475.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3720</c:v>
+                  <c:v>3720.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>626</c:v>
+                  <c:v>626.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5483-4EFE-B6BA-21A797E0DDFC}"/>
             </c:ext>
@@ -2442,96 +2431,96 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-5483-4EFE-B6BA-21A797E0DDFC}"/>
             </c:ext>
@@ -2547,11 +2536,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="820506080"/>
-        <c:axId val="820498864"/>
+        <c:axId val="-2141754536"/>
+        <c:axId val="-2141750712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="820506080"/>
+        <c:axId val="-2141754536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,10 +2580,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="820498864"/>
+        <c:crossAx val="-2141750712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="820498864"/>
+        <c:axId val="-2141750712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2650,10 +2639,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="820506080"/>
+        <c:crossAx val="-2141754536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,7 +2682,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2723,12 +2712,739 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$O$2:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>264.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$P$2:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$Q$2:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>904.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>612.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>707.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>771.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>693.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>603.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>682.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>831.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>882.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>956.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>963.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>838.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>821.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>847.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>972.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1023.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>806.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>426.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>573.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>534.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>742.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>723.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>675.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$R$2:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4409.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2795.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2314.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3935.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4076.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2508.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3008.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2335.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1826.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3279.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3828.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4087.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4200.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4255.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3435.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2843.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3878.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4370.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4317.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4462.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4245.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2710.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1493.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>818.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2177.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2777.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3081.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3272.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2320.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$S$2:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2152.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2185.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2293.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1089.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1608.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1044.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1174.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>907.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2655.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2381.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2441.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2607.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1594.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1562.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2369.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2575.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2910.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2782.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2424.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1364.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1049.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>483.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1310.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1549.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1665.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1829.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1266.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$T$2:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2120287224"/>
+        <c:axId val="-2121076664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2120287224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121076664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2121076664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120287224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3886,6 +4602,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3936,7 +4682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3971,7 +4717,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4148,7 +4894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4159,19 +4905,19 @@
   <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+      <selection activeCell="C246" sqref="C246:H276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +4943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>42826</v>
       </c>
@@ -4223,7 +4969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>42827</v>
       </c>
@@ -4249,7 +4995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>42828</v>
       </c>
@@ -4275,7 +5021,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>42829</v>
       </c>
@@ -4301,7 +5047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>42830</v>
       </c>
@@ -4327,7 +5073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>42831</v>
       </c>
@@ -4353,7 +5099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>42832</v>
       </c>
@@ -4379,7 +5125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>42833</v>
       </c>
@@ -4405,7 +5151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>42834</v>
       </c>
@@ -4431,7 +5177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>42835</v>
       </c>
@@ -4457,7 +5203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>42836</v>
       </c>
@@ -4483,7 +5229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>42837</v>
       </c>
@@ -4509,7 +5255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>42838</v>
       </c>
@@ -4535,7 +5281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>42839</v>
       </c>
@@ -4561,7 +5307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>42840</v>
       </c>
@@ -4587,7 +5333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>42841</v>
       </c>
@@ -4613,7 +5359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>42842</v>
       </c>
@@ -4639,7 +5385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>42843</v>
       </c>
@@ -4665,7 +5411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>42844</v>
       </c>
@@ -4691,7 +5437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>42845</v>
       </c>
@@ -4717,7 +5463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>42846</v>
       </c>
@@ -4743,7 +5489,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>42847</v>
       </c>
@@ -4769,7 +5515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>42848</v>
       </c>
@@ -4795,7 +5541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>42849</v>
       </c>
@@ -4821,7 +5567,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>42850</v>
       </c>
@@ -4847,7 +5593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>42851</v>
       </c>
@@ -4873,7 +5619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>42852</v>
       </c>
@@ -4899,7 +5645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>42853</v>
       </c>
@@ -4925,7 +5671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>42854</v>
       </c>
@@ -4951,7 +5697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>42855</v>
       </c>
@@ -4977,7 +5723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>42856</v>
       </c>
@@ -5003,7 +5749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>42857</v>
       </c>
@@ -5029,7 +5775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>42858</v>
       </c>
@@ -5055,7 +5801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>42859</v>
       </c>
@@ -5081,7 +5827,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>42860</v>
       </c>
@@ -5107,7 +5853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>42861</v>
       </c>
@@ -5133,7 +5879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>42862</v>
       </c>
@@ -5159,7 +5905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>42863</v>
       </c>
@@ -5185,7 +5931,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>42864</v>
       </c>
@@ -5211,7 +5957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>42865</v>
       </c>
@@ -5237,7 +5983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>42866</v>
       </c>
@@ -5263,7 +6009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>42867</v>
       </c>
@@ -5289,7 +6035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42868</v>
       </c>
@@ -5315,7 +6061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>42869</v>
       </c>
@@ -5341,7 +6087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>42870</v>
       </c>
@@ -5367,7 +6113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>42871</v>
       </c>
@@ -5393,7 +6139,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>42872</v>
       </c>
@@ -5419,7 +6165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>42873</v>
       </c>
@@ -5445,7 +6191,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>42874</v>
       </c>
@@ -5471,7 +6217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>42875</v>
       </c>
@@ -5497,7 +6243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>42876</v>
       </c>
@@ -5523,7 +6269,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>42877</v>
       </c>
@@ -5549,7 +6295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>42878</v>
       </c>
@@ -5575,7 +6321,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>42879</v>
       </c>
@@ -5601,7 +6347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>42880</v>
       </c>
@@ -5627,7 +6373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>42881</v>
       </c>
@@ -5653,7 +6399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>42882</v>
       </c>
@@ -5679,7 +6425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>42883</v>
       </c>
@@ -5705,7 +6451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>42884</v>
       </c>
@@ -5731,7 +6477,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>42885</v>
       </c>
@@ -5757,7 +6503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>42886</v>
       </c>
@@ -5783,7 +6529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>42887</v>
       </c>
@@ -5809,7 +6555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>42888</v>
       </c>
@@ -5835,7 +6581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>42889</v>
       </c>
@@ -5861,7 +6607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>42890</v>
       </c>
@@ -5887,7 +6633,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>42891</v>
       </c>
@@ -5913,7 +6659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>42892</v>
       </c>
@@ -5939,7 +6685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>42893</v>
       </c>
@@ -5965,7 +6711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>42894</v>
       </c>
@@ -5991,7 +6737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>42895</v>
       </c>
@@ -6017,7 +6763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>42896</v>
       </c>
@@ -6043,7 +6789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>42897</v>
       </c>
@@ -6069,7 +6815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>42898</v>
       </c>
@@ -6095,7 +6841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>42899</v>
       </c>
@@ -6121,7 +6867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>42900</v>
       </c>
@@ -6147,7 +6893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>42901</v>
       </c>
@@ -6173,7 +6919,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>42902</v>
       </c>
@@ -6199,7 +6945,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>42903</v>
       </c>
@@ -6225,7 +6971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>42904</v>
       </c>
@@ -6251,7 +6997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>42905</v>
       </c>
@@ -6277,7 +7023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>42906</v>
       </c>
@@ -6303,7 +7049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>42907</v>
       </c>
@@ -6329,7 +7075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>42908</v>
       </c>
@@ -6355,7 +7101,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>42909</v>
       </c>
@@ -6381,7 +7127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>42910</v>
       </c>
@@ -6407,7 +7153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>42911</v>
       </c>
@@ -6433,7 +7179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>42912</v>
       </c>
@@ -6459,7 +7205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>42913</v>
       </c>
@@ -6485,7 +7231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>42914</v>
       </c>
@@ -6511,7 +7257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>42915</v>
       </c>
@@ -6537,7 +7283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>42916</v>
       </c>
@@ -6563,7 +7309,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>42917</v>
       </c>
@@ -6589,7 +7335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>42918</v>
       </c>
@@ -6615,7 +7361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>42919</v>
       </c>
@@ -6641,7 +7387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>42920</v>
       </c>
@@ -6667,7 +7413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>42921</v>
       </c>
@@ -6693,7 +7439,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>42922</v>
       </c>
@@ -6719,7 +7465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>42923</v>
       </c>
@@ -6745,7 +7491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>42924</v>
       </c>
@@ -6771,7 +7517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>42925</v>
       </c>
@@ -6797,7 +7543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>42926</v>
       </c>
@@ -6823,7 +7569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>42927</v>
       </c>
@@ -6849,7 +7595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>42928</v>
       </c>
@@ -6875,7 +7621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>42929</v>
       </c>
@@ -6901,7 +7647,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>42930</v>
       </c>
@@ -6927,7 +7673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>42931</v>
       </c>
@@ -6953,7 +7699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>42932</v>
       </c>
@@ -6979,7 +7725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>42933</v>
       </c>
@@ -7005,7 +7751,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>42934</v>
       </c>
@@ -7031,7 +7777,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>42935</v>
       </c>
@@ -7057,7 +7803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>42936</v>
       </c>
@@ -7083,7 +7829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>42937</v>
       </c>
@@ -7109,7 +7855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>42938</v>
       </c>
@@ -7135,7 +7881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>42939</v>
       </c>
@@ -7161,7 +7907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>42940</v>
       </c>
@@ -7187,7 +7933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>42941</v>
       </c>
@@ -7213,7 +7959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>42942</v>
       </c>
@@ -7239,7 +7985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>42943</v>
       </c>
@@ -7265,7 +8011,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>42944</v>
       </c>
@@ -7291,7 +8037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>42945</v>
       </c>
@@ -7317,7 +8063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>42946</v>
       </c>
@@ -7343,7 +8089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>42947</v>
       </c>
@@ -7369,7 +8115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>42948</v>
       </c>
@@ -7395,7 +8141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>42949</v>
       </c>
@@ -7421,7 +8167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>42950</v>
       </c>
@@ -7447,7 +8193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>42951</v>
       </c>
@@ -7473,7 +8219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>42952</v>
       </c>
@@ -7499,7 +8245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>42953</v>
       </c>
@@ -7525,7 +8271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>42954</v>
       </c>
@@ -7551,7 +8297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>42955</v>
       </c>
@@ -7577,7 +8323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>42956</v>
       </c>
@@ -7603,7 +8349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>42957</v>
       </c>
@@ -7629,7 +8375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>42958</v>
       </c>
@@ -7655,7 +8401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>42959</v>
       </c>
@@ -7681,7 +8427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>42960</v>
       </c>
@@ -7707,7 +8453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>42961</v>
       </c>
@@ -7733,7 +8479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>42962</v>
       </c>
@@ -7759,7 +8505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>42963</v>
       </c>
@@ -7785,7 +8531,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>42964</v>
       </c>
@@ -7811,7 +8557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>42965</v>
       </c>
@@ -7837,7 +8583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>42966</v>
       </c>
@@ -7863,7 +8609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>42967</v>
       </c>
@@ -7889,7 +8635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>42968</v>
       </c>
@@ -7915,7 +8661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>42969</v>
       </c>
@@ -7941,7 +8687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>42970</v>
       </c>
@@ -7967,7 +8713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>42971</v>
       </c>
@@ -7993,7 +8739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>42972</v>
       </c>
@@ -8019,7 +8765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>42973</v>
       </c>
@@ -8045,7 +8791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>42974</v>
       </c>
@@ -8071,7 +8817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>42975</v>
       </c>
@@ -8097,7 +8843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>42976</v>
       </c>
@@ -8123,7 +8869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>42977</v>
       </c>
@@ -8149,7 +8895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>42978</v>
       </c>
@@ -8175,7 +8921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>42979</v>
       </c>
@@ -8201,7 +8947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>42980</v>
       </c>
@@ -8227,7 +8973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>42981</v>
       </c>
@@ -8253,7 +8999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>42982</v>
       </c>
@@ -8279,7 +9025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>42983</v>
       </c>
@@ -8305,7 +9051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>42984</v>
       </c>
@@ -8331,7 +9077,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>42985</v>
       </c>
@@ -8357,7 +9103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>42986</v>
       </c>
@@ -8383,7 +9129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>42987</v>
       </c>
@@ -8409,7 +9155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>42988</v>
       </c>
@@ -8435,7 +9181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>42989</v>
       </c>
@@ -8461,7 +9207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>42990</v>
       </c>
@@ -8487,7 +9233,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>42991</v>
       </c>
@@ -8513,7 +9259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>42992</v>
       </c>
@@ -8539,7 +9285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>42993</v>
       </c>
@@ -8565,7 +9311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>42994</v>
       </c>
@@ -8591,7 +9337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>42995</v>
       </c>
@@ -8617,7 +9363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>42996</v>
       </c>
@@ -8643,7 +9389,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>42997</v>
       </c>
@@ -8669,7 +9415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>42998</v>
       </c>
@@ -8695,7 +9441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>42999</v>
       </c>
@@ -8721,7 +9467,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>43000</v>
       </c>
@@ -8747,7 +9493,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>43001</v>
       </c>
@@ -8773,7 +9519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>43002</v>
       </c>
@@ -8799,7 +9545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>43003</v>
       </c>
@@ -8825,7 +9571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>43004</v>
       </c>
@@ -8851,7 +9597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>43005</v>
       </c>
@@ -8877,7 +9623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>43006</v>
       </c>
@@ -8903,7 +9649,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>43007</v>
       </c>
@@ -8929,7 +9675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>43008</v>
       </c>
@@ -8955,7 +9701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>43009</v>
       </c>
@@ -8981,7 +9727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>43010</v>
       </c>
@@ -9007,7 +9753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>43011</v>
       </c>
@@ -9033,7 +9779,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>43012</v>
       </c>
@@ -9059,7 +9805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>43013</v>
       </c>
@@ -9085,7 +9831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>43014</v>
       </c>
@@ -9111,7 +9857,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>43015</v>
       </c>
@@ -9137,7 +9883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>43016</v>
       </c>
@@ -9163,7 +9909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>43017</v>
       </c>
@@ -9189,7 +9935,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>43018</v>
       </c>
@@ -9215,7 +9961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>43019</v>
       </c>
@@ -9241,7 +9987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>43020</v>
       </c>
@@ -9267,7 +10013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>43021</v>
       </c>
@@ -9293,7 +10039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>43022</v>
       </c>
@@ -9319,7 +10065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>43023</v>
       </c>
@@ -9345,7 +10091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>43024</v>
       </c>
@@ -9371,7 +10117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>43025</v>
       </c>
@@ -9397,7 +10143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>43026</v>
       </c>
@@ -9423,7 +10169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>43027</v>
       </c>
@@ -9449,7 +10195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>43028</v>
       </c>
@@ -9475,7 +10221,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>43029</v>
       </c>
@@ -9501,7 +10247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>43030</v>
       </c>
@@ -9527,7 +10273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>43031</v>
       </c>
@@ -9553,7 +10299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>43032</v>
       </c>
@@ -9579,7 +10325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>43033</v>
       </c>
@@ -9605,7 +10351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>43034</v>
       </c>
@@ -9631,7 +10377,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>43035</v>
       </c>
@@ -9657,7 +10403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>43036</v>
       </c>
@@ -9683,7 +10429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>43037</v>
       </c>
@@ -9709,7 +10455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>43038</v>
       </c>
@@ -9735,7 +10481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>43039</v>
       </c>
@@ -9761,7 +10507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>43040</v>
       </c>
@@ -9787,7 +10533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>43041</v>
       </c>
@@ -9813,7 +10559,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>43042</v>
       </c>
@@ -9839,7 +10585,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>43043</v>
       </c>
@@ -9865,7 +10611,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>43044</v>
       </c>
@@ -9891,7 +10637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>43045</v>
       </c>
@@ -9917,7 +10663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>43046</v>
       </c>
@@ -9943,7 +10689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>43047</v>
       </c>
@@ -9969,7 +10715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>43048</v>
       </c>
@@ -9995,7 +10741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>43049</v>
       </c>
@@ -10021,7 +10767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>43050</v>
       </c>
@@ -10047,7 +10793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>43051</v>
       </c>
@@ -10073,7 +10819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>43052</v>
       </c>
@@ -10099,7 +10845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>43053</v>
       </c>
@@ -10125,7 +10871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>43054</v>
       </c>
@@ -10151,7 +10897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>43055</v>
       </c>
@@ -10177,7 +10923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>43056</v>
       </c>
@@ -10203,7 +10949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>43057</v>
       </c>
@@ -10229,7 +10975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>43058</v>
       </c>
@@ -10255,7 +11001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>43059</v>
       </c>
@@ -10281,7 +11027,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>43060</v>
       </c>
@@ -10307,7 +11053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>43061</v>
       </c>
@@ -10333,7 +11079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>43062</v>
       </c>
@@ -10359,7 +11105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>43063</v>
       </c>
@@ -10385,7 +11131,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>43064</v>
       </c>
@@ -10411,7 +11157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>43065</v>
       </c>
@@ -10437,7 +11183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>43066</v>
       </c>
@@ -10463,7 +11209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>43067</v>
       </c>
@@ -10489,7 +11235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>43068</v>
       </c>
@@ -10515,7 +11261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>43069</v>
       </c>
@@ -10541,7 +11287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>43070</v>
       </c>
@@ -10567,7 +11313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>43071</v>
       </c>
@@ -10593,7 +11339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>43072</v>
       </c>
@@ -10619,7 +11365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>43073</v>
       </c>
@@ -10645,7 +11391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>43074</v>
       </c>
@@ -10671,7 +11417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>43075</v>
       </c>
@@ -10697,7 +11443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>43076</v>
       </c>
@@ -10723,7 +11469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>43077</v>
       </c>
@@ -10749,7 +11495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>43078</v>
       </c>
@@ -10775,7 +11521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>43079</v>
       </c>
@@ -10801,7 +11547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>43080</v>
       </c>
@@ -10827,7 +11573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>43081</v>
       </c>
@@ -10853,7 +11599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>43082</v>
       </c>
@@ -10879,7 +11625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>43083</v>
       </c>
@@ -10905,7 +11651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>43084</v>
       </c>
@@ -10931,7 +11677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>43085</v>
       </c>
@@ -10957,7 +11703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>43086</v>
       </c>
@@ -10983,7 +11729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:8">
       <c r="A263" s="1">
         <v>43087</v>
       </c>
@@ -11009,7 +11755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:8">
       <c r="A264" s="1">
         <v>43088</v>
       </c>
@@ -11035,7 +11781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:8">
       <c r="A265" s="1">
         <v>43089</v>
       </c>
@@ -11061,7 +11807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:8">
       <c r="A266" s="1">
         <v>43090</v>
       </c>
@@ -11087,7 +11833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:8">
       <c r="A267" s="1">
         <v>43091</v>
       </c>
@@ -11113,7 +11859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:8">
       <c r="A268" s="1">
         <v>43092</v>
       </c>
@@ -11139,7 +11885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:8">
       <c r="A269" s="1">
         <v>43093</v>
       </c>
@@ -11165,7 +11911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:8">
       <c r="A270" s="1">
         <v>43094</v>
       </c>
@@ -11191,7 +11937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:8">
       <c r="A271" s="1">
         <v>43095</v>
       </c>
@@ -11217,7 +11963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:8">
       <c r="A272" s="1">
         <v>43096</v>
       </c>
@@ -11243,7 +11989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:8">
       <c r="A273" s="1">
         <v>43097</v>
       </c>
@@ -11269,7 +12015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:8">
       <c r="A274" s="1">
         <v>43098</v>
       </c>
@@ -11295,7 +12041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:8">
       <c r="A275" s="1">
         <v>43099</v>
       </c>
@@ -11321,7 +12067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:8">
       <c r="A276" s="1">
         <v>43100</v>
       </c>
@@ -11347,7 +12093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:8">
       <c r="A277" s="1">
         <v>43101</v>
       </c>
@@ -11373,7 +12119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:8">
       <c r="A278" s="1">
         <v>43102</v>
       </c>
@@ -11399,7 +12145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:8">
       <c r="A279" s="1">
         <v>43103</v>
       </c>
@@ -11425,7 +12171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:8">
       <c r="A280" s="1">
         <v>43104</v>
       </c>
@@ -11451,7 +12197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:8">
       <c r="A281" s="1">
         <v>43105</v>
       </c>
@@ -11477,7 +12223,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:8">
       <c r="A282" s="1">
         <v>43106</v>
       </c>
@@ -11503,7 +12249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:8">
       <c r="A283" s="1">
         <v>43107</v>
       </c>
@@ -11529,7 +12275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:8">
       <c r="A284" s="1">
         <v>43108</v>
       </c>
@@ -11555,7 +12301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:8">
       <c r="A285" s="1">
         <v>43109</v>
       </c>
@@ -11581,7 +12327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:8">
       <c r="A286" s="1">
         <v>43110</v>
       </c>
@@ -11607,7 +12353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:8">
       <c r="A287" s="1">
         <v>43111</v>
       </c>
@@ -11633,7 +12379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:8">
       <c r="A288" s="1">
         <v>43112</v>
       </c>
@@ -11659,7 +12405,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:8">
       <c r="A289" s="1">
         <v>43113</v>
       </c>
@@ -11685,7 +12431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:8">
       <c r="A290" s="1">
         <v>43114</v>
       </c>
@@ -11711,7 +12457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:8">
       <c r="A291" s="1">
         <v>43115</v>
       </c>
@@ -11737,7 +12483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:8">
       <c r="A292" s="1">
         <v>43116</v>
       </c>
@@ -11763,7 +12509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:8">
       <c r="A293" s="1">
         <v>43117</v>
       </c>
@@ -11789,7 +12535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:8">
       <c r="A294" s="1">
         <v>43118</v>
       </c>
@@ -11815,7 +12561,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:8">
       <c r="A295" s="1">
         <v>43119</v>
       </c>
@@ -11841,7 +12587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:8">
       <c r="A296" s="1">
         <v>43120</v>
       </c>
@@ -11867,7 +12613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:8">
       <c r="A297" s="1">
         <v>43121</v>
       </c>
@@ -11893,7 +12639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:8">
       <c r="A298" s="1">
         <v>43122</v>
       </c>
@@ -11919,7 +12665,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:8">
       <c r="A299" s="1">
         <v>43123</v>
       </c>
@@ -11945,7 +12691,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:8">
       <c r="A300" s="1">
         <v>43124</v>
       </c>
@@ -11971,7 +12717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:8">
       <c r="A301" s="1">
         <v>43125</v>
       </c>
@@ -11997,7 +12743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:8">
       <c r="A302" s="1">
         <v>43126</v>
       </c>
@@ -12023,7 +12769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:8">
       <c r="A303" s="1">
         <v>43127</v>
       </c>
@@ -12049,7 +12795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:8">
       <c r="A304" s="1">
         <v>43128</v>
       </c>
@@ -12075,7 +12821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:8">
       <c r="A305" s="1">
         <v>43129</v>
       </c>
@@ -12101,7 +12847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:8">
       <c r="A306" s="1">
         <v>43130</v>
       </c>
@@ -12127,7 +12873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:8">
       <c r="A307" s="1">
         <v>43131</v>
       </c>
@@ -12153,7 +12899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:8">
       <c r="A308" s="1">
         <v>43132</v>
       </c>
@@ -12179,7 +12925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:8">
       <c r="A309" s="1">
         <v>43133</v>
       </c>
@@ -12205,7 +12951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:8">
       <c r="A310" s="1">
         <v>43134</v>
       </c>
@@ -12231,7 +12977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:8">
       <c r="A311" s="1">
         <v>43135</v>
       </c>
@@ -12257,7 +13003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:8">
       <c r="A312" s="1">
         <v>43136</v>
       </c>
@@ -12283,7 +13029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:8">
       <c r="A313" s="1">
         <v>43137</v>
       </c>
@@ -12309,7 +13055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:8">
       <c r="A314" s="1">
         <v>43138</v>
       </c>
@@ -12335,7 +13081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:8">
       <c r="A315" s="1">
         <v>43139</v>
       </c>
@@ -12361,7 +13107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:8">
       <c r="A316" s="1">
         <v>43140</v>
       </c>
@@ -12387,7 +13133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:8">
       <c r="A317" s="1">
         <v>43141</v>
       </c>
@@ -12413,7 +13159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:8">
       <c r="A318" s="1">
         <v>43142</v>
       </c>
@@ -12439,7 +13185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:8">
       <c r="A319" s="1">
         <v>43143</v>
       </c>
@@ -12465,7 +13211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:8">
       <c r="A320" s="1">
         <v>43144</v>
       </c>
@@ -12491,7 +13237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:8">
       <c r="A321" s="1">
         <v>43145</v>
       </c>
@@ -12517,7 +13263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:8">
       <c r="A322" s="1">
         <v>43146</v>
       </c>
@@ -12543,7 +13289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:8">
       <c r="A323" s="1">
         <v>43147</v>
       </c>
@@ -12569,7 +13315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:8">
       <c r="A324" s="1">
         <v>43148</v>
       </c>
@@ -12595,7 +13341,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:8">
       <c r="A325" s="1">
         <v>43149</v>
       </c>
@@ -12621,7 +13367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:8">
       <c r="A326" s="1">
         <v>43150</v>
       </c>
@@ -12647,7 +13393,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:8">
       <c r="A327" s="1">
         <v>43151</v>
       </c>
@@ -12673,7 +13419,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:8">
       <c r="A328" s="1">
         <v>43152</v>
       </c>
@@ -12699,7 +13445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:8">
       <c r="A329" s="1">
         <v>43153</v>
       </c>
@@ -12725,7 +13471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:8">
       <c r="A330" s="1">
         <v>43154</v>
       </c>
@@ -12751,7 +13497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:8">
       <c r="A331" s="1">
         <v>43155</v>
       </c>
@@ -12777,7 +13523,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:8">
       <c r="A332" s="1">
         <v>43156</v>
       </c>
@@ -12803,7 +13549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:8">
       <c r="A333" s="1">
         <v>43157</v>
       </c>
@@ -12829,7 +13575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:8">
       <c r="A334" s="1">
         <v>43158</v>
       </c>
@@ -12855,7 +13601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:8">
       <c r="A335" s="1">
         <v>43159</v>
       </c>
@@ -12881,7 +13627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:8">
       <c r="A336" s="1">
         <v>43160</v>
       </c>
@@ -12907,7 +13653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:8">
       <c r="A337" s="1">
         <v>43161</v>
       </c>
@@ -12933,7 +13679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:8">
       <c r="A338" s="1">
         <v>43162</v>
       </c>
@@ -12959,7 +13705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:8">
       <c r="A339" s="1">
         <v>43163</v>
       </c>
@@ -12985,7 +13731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:8">
       <c r="A340" s="1">
         <v>43164</v>
       </c>
@@ -13011,7 +13757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:8">
       <c r="A341" s="1">
         <v>43165</v>
       </c>
@@ -13037,7 +13783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:8">
       <c r="A342" s="1">
         <v>43166</v>
       </c>
@@ -13063,7 +13809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:8">
       <c r="A343" s="1">
         <v>43167</v>
       </c>
@@ -13089,7 +13835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:8">
       <c r="A344" s="1">
         <v>43168</v>
       </c>
@@ -13115,7 +13861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:8">
       <c r="A345" s="1">
         <v>43169</v>
       </c>
@@ -13141,7 +13887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:8">
       <c r="A346" s="1">
         <v>43170</v>
       </c>
@@ -13167,7 +13913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:8">
       <c r="A347" s="1">
         <v>43171</v>
       </c>
@@ -13193,7 +13939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:8">
       <c r="A348" s="1">
         <v>43172</v>
       </c>
@@ -13219,7 +13965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:8">
       <c r="A349" s="1">
         <v>43173</v>
       </c>
@@ -13245,7 +13991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:8">
       <c r="A350" s="1">
         <v>43174</v>
       </c>
@@ -13271,7 +14017,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:8">
       <c r="A351" s="1">
         <v>43175</v>
       </c>
@@ -13297,7 +14043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:8">
       <c r="A352" s="1">
         <v>43176</v>
       </c>
@@ -13323,7 +14069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:8">
       <c r="A353" s="1">
         <v>43177</v>
       </c>
@@ -13349,7 +14095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:8">
       <c r="A354" s="1">
         <v>43178</v>
       </c>
@@ -13375,7 +14121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:8">
       <c r="A355" s="1">
         <v>43179</v>
       </c>
@@ -13401,7 +14147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:8">
       <c r="A356" s="1">
         <v>43180</v>
       </c>
@@ -13427,7 +14173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:8">
       <c r="A357" s="1">
         <v>43181</v>
       </c>
@@ -13453,7 +14199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:8">
       <c r="A358" s="1">
         <v>43182</v>
       </c>
@@ -13479,7 +14225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:8">
       <c r="A359" s="1">
         <v>43183</v>
       </c>
@@ -13505,7 +14251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:8">
       <c r="A360" s="1">
         <v>43184</v>
       </c>
@@ -13531,7 +14277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:8">
       <c r="A361" s="1">
         <v>43185</v>
       </c>
@@ -13557,7 +14303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:8">
       <c r="A362" s="1">
         <v>43186</v>
       </c>
@@ -13583,7 +14329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:8">
       <c r="A363" s="1">
         <v>43187</v>
       </c>
@@ -13609,7 +14355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:8">
       <c r="A364" s="1">
         <v>43188</v>
       </c>
@@ -13635,7 +14381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:8">
       <c r="A365" s="1">
         <v>43189</v>
       </c>
@@ -13661,7 +14407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:8">
       <c r="A366" s="1">
         <v>43190</v>
       </c>
@@ -13687,7 +14433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:8">
       <c r="A367" s="1">
         <v>43191</v>
       </c>
@@ -13713,7 +14459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:8">
       <c r="A368" s="1">
         <v>43192</v>
       </c>
@@ -13739,7 +14485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:8">
       <c r="A369" s="1">
         <v>43193</v>
       </c>
@@ -13765,7 +14511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:8">
       <c r="A370" s="1">
         <v>43194</v>
       </c>
@@ -13791,7 +14537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:8">
       <c r="A371" s="1">
         <v>43195</v>
       </c>
@@ -13817,7 +14563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:8">
       <c r="A372" s="1">
         <v>43196</v>
       </c>
@@ -13843,7 +14589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:8">
       <c r="A373" s="1">
         <v>43197</v>
       </c>
@@ -13869,7 +14615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:8">
       <c r="A374" s="1">
         <v>43198</v>
       </c>
@@ -13895,7 +14641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:8">
       <c r="A375" s="1">
         <v>43199</v>
       </c>
@@ -13921,7 +14667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:8">
       <c r="A376" s="1">
         <v>43200</v>
       </c>
@@ -13947,7 +14693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:8">
       <c r="A377" s="1">
         <v>43201</v>
       </c>
@@ -13973,7 +14719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:8">
       <c r="A378" s="1">
         <v>43202</v>
       </c>
@@ -13999,7 +14745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:8">
       <c r="A379" s="1">
         <v>43203</v>
       </c>
@@ -14025,7 +14771,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:8">
       <c r="A380" s="1">
         <v>43204</v>
       </c>
@@ -14051,7 +14797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:8">
       <c r="A381" s="1">
         <v>43205</v>
       </c>
@@ -14077,7 +14823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:8">
       <c r="A382" s="1">
         <v>43206</v>
       </c>
@@ -14103,7 +14849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:8">
       <c r="A383" s="1">
         <v>43207</v>
       </c>
@@ -14129,7 +14875,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:8">
       <c r="A384" s="1">
         <v>43208</v>
       </c>
@@ -14155,7 +14901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:8">
       <c r="A385" s="1">
         <v>43209</v>
       </c>
@@ -14181,7 +14927,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:8">
       <c r="A386" s="1">
         <v>43210</v>
       </c>
@@ -14207,7 +14953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:8">
       <c r="A387" s="1">
         <v>43211</v>
       </c>
@@ -14233,7 +14979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:8">
       <c r="A388" s="1">
         <v>43212</v>
       </c>
@@ -14259,7 +15005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:8">
       <c r="A389" s="1">
         <v>43213</v>
       </c>
@@ -14285,7 +15031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:8">
       <c r="A390" s="1">
         <v>43214</v>
       </c>
@@ -14311,7 +15057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:8">
       <c r="A391" s="1">
         <v>43215</v>
       </c>
@@ -14337,7 +15083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:8">
       <c r="A392" s="1">
         <v>43216</v>
       </c>
@@ -14363,7 +15109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:8">
       <c r="A393" s="1">
         <v>43217</v>
       </c>
@@ -14389,7 +15135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:8">
       <c r="A394" s="1">
         <v>43218</v>
       </c>
@@ -14415,7 +15161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:8">
       <c r="A395" s="1">
         <v>43219</v>
       </c>
@@ -14441,7 +15187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:8">
       <c r="A396" s="1">
         <v>43220</v>
       </c>
@@ -14467,7 +15213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:8">
       <c r="A397" s="1">
         <v>43221</v>
       </c>
@@ -14493,7 +15239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:8">
       <c r="A398" s="1">
         <v>43222</v>
       </c>
@@ -14519,7 +15265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:8">
       <c r="A399" s="1">
         <v>43223</v>
       </c>
@@ -14545,7 +15291,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:8">
       <c r="A400" s="1">
         <v>43224</v>
       </c>
@@ -14571,7 +15317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:8">
       <c r="A401" s="1">
         <v>43225</v>
       </c>
@@ -14597,7 +15343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:8">
       <c r="A402" s="1">
         <v>43226</v>
       </c>
@@ -14623,7 +15369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:8">
       <c r="A403" s="1">
         <v>43227</v>
       </c>
@@ -14649,7 +15395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:8">
       <c r="A404" s="1">
         <v>43228</v>
       </c>
@@ -14675,7 +15421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:8">
       <c r="A405" s="1">
         <v>43229</v>
       </c>
@@ -14701,7 +15447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:8">
       <c r="A406" s="1">
         <v>43230</v>
       </c>
@@ -14727,7 +15473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:8">
       <c r="A407" s="1">
         <v>43231</v>
       </c>
@@ -14753,7 +15499,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:8">
       <c r="A408" s="1">
         <v>43232</v>
       </c>
@@ -14779,7 +15525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:8">
       <c r="A409" s="1">
         <v>43233</v>
       </c>
@@ -14805,7 +15551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:8">
       <c r="A410" s="1">
         <v>43234</v>
       </c>
@@ -14831,7 +15577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:8">
       <c r="A411" s="1">
         <v>43235</v>
       </c>
@@ -14857,7 +15603,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:8">
       <c r="A412" s="1">
         <v>43236</v>
       </c>
@@ -14883,7 +15629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:8">
       <c r="A413" s="1">
         <v>43237</v>
       </c>
@@ -14909,7 +15655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:8">
       <c r="A414" s="1">
         <v>43238</v>
       </c>
@@ -14935,7 +15681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:8">
       <c r="A415" s="1">
         <v>43239</v>
       </c>
@@ -14961,7 +15707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:8">
       <c r="A416" s="1">
         <v>43240</v>
       </c>
@@ -14987,7 +15733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:8">
       <c r="A417" s="1">
         <v>43241</v>
       </c>
@@ -15013,7 +15759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:8">
       <c r="A418" s="1">
         <v>43242</v>
       </c>
@@ -15039,7 +15785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:8">
       <c r="A419" s="1">
         <v>43243</v>
       </c>
@@ -15065,7 +15811,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:8">
       <c r="A420" s="1">
         <v>43244</v>
       </c>
@@ -15091,7 +15837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:8">
       <c r="A421" s="1">
         <v>43245</v>
       </c>
@@ -15117,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:8">
       <c r="A422" s="1">
         <v>43249</v>
       </c>
@@ -15143,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:8">
       <c r="A423" s="1">
         <v>43250</v>
       </c>
@@ -15169,7 +15915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:8">
       <c r="A424" s="1">
         <v>43251</v>
       </c>
@@ -15195,7 +15941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:8">
       <c r="A425" s="1">
         <v>43252</v>
       </c>
@@ -15221,7 +15967,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:8">
       <c r="A426" s="1">
         <v>43253</v>
       </c>
@@ -15247,7 +15993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:8">
       <c r="A427" s="1">
         <v>43254</v>
       </c>
@@ -15273,7 +16019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:8">
       <c r="A428" s="1">
         <v>43255</v>
       </c>
@@ -15299,7 +16045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:8">
       <c r="A429" s="1">
         <v>43256</v>
       </c>
@@ -15325,7 +16071,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:8">
       <c r="A430" s="1">
         <v>43257</v>
       </c>
@@ -15351,7 +16097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:8">
       <c r="A431" s="1">
         <v>43258</v>
       </c>
@@ -15377,7 +16123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:8">
       <c r="A432" s="1">
         <v>43259</v>
       </c>
@@ -15403,7 +16149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:8">
       <c r="A433" s="1">
         <v>43260</v>
       </c>
@@ -15429,7 +16175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:8">
       <c r="A434" s="1">
         <v>43261</v>
       </c>
@@ -15455,7 +16201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:8">
       <c r="A435" s="1">
         <v>43262</v>
       </c>
@@ -15481,7 +16227,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:8">
       <c r="A436" s="1">
         <v>43263</v>
       </c>
@@ -15507,7 +16253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:8">
       <c r="A437" s="1">
         <v>43264</v>
       </c>
@@ -15533,7 +16279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:8">
       <c r="A438" s="1">
         <v>43265</v>
       </c>
@@ -15559,7 +16305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:8">
       <c r="A439" s="1">
         <v>43266</v>
       </c>
@@ -15585,7 +16331,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:8">
       <c r="A440" s="1">
         <v>43267</v>
       </c>
@@ -15611,7 +16357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:8">
       <c r="A441" s="1">
         <v>43268</v>
       </c>
@@ -15637,7 +16383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:8">
       <c r="A442" s="1">
         <v>43269</v>
       </c>
@@ -15663,7 +16409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:8">
       <c r="A443" s="1">
         <v>43270</v>
       </c>
@@ -15689,7 +16435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:8">
       <c r="A444" s="1">
         <v>43271</v>
       </c>
@@ -15715,7 +16461,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:8">
       <c r="A445" s="1">
         <v>43272</v>
       </c>
@@ -15741,7 +16487,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:8">
       <c r="A446" s="1">
         <v>43273</v>
       </c>
@@ -15767,7 +16513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:8">
       <c r="A447" s="1">
         <v>43274</v>
       </c>
@@ -15793,7 +16539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:8">
       <c r="A448" s="1">
         <v>43275</v>
       </c>
@@ -15819,7 +16565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:8">
       <c r="A449" s="1">
         <v>43276</v>
       </c>
@@ -15845,7 +16591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:8">
       <c r="A450" s="1">
         <v>43277</v>
       </c>
@@ -15871,7 +16617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:8">
       <c r="A451" s="1">
         <v>43278</v>
       </c>
@@ -15897,7 +16643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:8">
       <c r="A452" s="1">
         <v>43282</v>
       </c>
@@ -15923,7 +16669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:8">
       <c r="A453" s="1">
         <v>43283</v>
       </c>
@@ -15949,7 +16695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:8">
       <c r="A454" s="1">
         <v>43284</v>
       </c>
@@ -15975,7 +16721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:8">
       <c r="A455" s="1">
         <v>43285</v>
       </c>
@@ -16001,7 +16747,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:8">
       <c r="A456" s="1">
         <v>43286</v>
       </c>
@@ -16027,7 +16773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:8">
       <c r="A457" s="1">
         <v>43287</v>
       </c>
@@ -16053,7 +16799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:8">
       <c r="A458" s="1">
         <v>43288</v>
       </c>
@@ -16079,7 +16825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:8">
       <c r="A459" s="1">
         <v>43289</v>
       </c>
@@ -16105,7 +16851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:8">
       <c r="A460" s="1">
         <v>43290</v>
       </c>
@@ -16131,7 +16877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:8">
       <c r="A461" s="1">
         <v>43291</v>
       </c>
@@ -16157,7 +16903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:8">
       <c r="A462" s="1">
         <v>43292</v>
       </c>
@@ -16183,7 +16929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:8">
       <c r="A463" s="1">
         <v>43293</v>
       </c>
@@ -16209,7 +16955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:8">
       <c r="A464" s="1">
         <v>43294</v>
       </c>
@@ -16235,7 +16981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:8">
       <c r="A465" s="1">
         <v>43295</v>
       </c>
@@ -16261,7 +17007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:8">
       <c r="A466" s="1">
         <v>43296</v>
       </c>
@@ -16287,7 +17033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:8">
       <c r="A467" s="1">
         <v>43297</v>
       </c>
@@ -16313,7 +17059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:8">
       <c r="A468" s="1">
         <v>43298</v>
       </c>
@@ -16339,7 +17085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:8">
       <c r="A469" s="1">
         <v>43299</v>
       </c>
@@ -16365,7 +17111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:8">
       <c r="A470" s="1">
         <v>43300</v>
       </c>
@@ -16391,7 +17137,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:8">
       <c r="A471" s="1">
         <v>43301</v>
       </c>
@@ -16417,7 +17163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:8">
       <c r="A472" s="1">
         <v>43302</v>
       </c>
@@ -16443,7 +17189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:8">
       <c r="A473" s="1">
         <v>43303</v>
       </c>
@@ -16469,7 +17215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:8">
       <c r="A474" s="1">
         <v>43304</v>
       </c>
@@ -16495,7 +17241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:8">
       <c r="A475" s="1">
         <v>43305</v>
       </c>
@@ -16521,7 +17267,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:8">
       <c r="A476" s="1">
         <v>43306</v>
       </c>
@@ -16547,7 +17293,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:8">
       <c r="A477" s="1">
         <v>43307</v>
       </c>
@@ -16573,7 +17319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:8">
       <c r="A478" s="1">
         <v>43308</v>
       </c>
@@ -16599,7 +17345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:8">
       <c r="A479" s="1">
         <v>43309</v>
       </c>
@@ -16625,7 +17371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:8">
       <c r="A480" s="1">
         <v>43310</v>
       </c>
@@ -16651,7 +17397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:8">
       <c r="A481" s="1">
         <v>43311</v>
       </c>
@@ -16677,7 +17423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:8">
       <c r="A482" s="1">
         <v>43312</v>
       </c>
@@ -16703,7 +17449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:8">
       <c r="A483" s="1">
         <v>43313</v>
       </c>
@@ -16729,7 +17475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:8">
       <c r="A484" s="1">
         <v>43313</v>
       </c>
@@ -16755,7 +17501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:8">
       <c r="A485" s="1">
         <v>43314</v>
       </c>
@@ -16781,7 +17527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:8">
       <c r="A486" s="1">
         <v>43315</v>
       </c>
@@ -16807,7 +17553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:8">
       <c r="A487" s="1">
         <v>43316</v>
       </c>
@@ -16833,7 +17579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:8">
       <c r="A488" s="1">
         <v>43317</v>
       </c>
@@ -16859,7 +17605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:8">
       <c r="A489" s="1">
         <v>43318</v>
       </c>
@@ -16885,7 +17631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:8">
       <c r="A490" s="1">
         <v>43319</v>
       </c>
@@ -16911,7 +17657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:8">
       <c r="A491" s="1">
         <v>43320</v>
       </c>
@@ -16937,7 +17683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:8">
       <c r="A492" s="1">
         <v>43321</v>
       </c>
@@ -16963,7 +17709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:8">
       <c r="A493" s="1">
         <v>43322</v>
       </c>
@@ -16989,7 +17735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:8">
       <c r="A494" s="1">
         <v>43323</v>
       </c>
@@ -17015,7 +17761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:8">
       <c r="A495" s="1">
         <v>43324</v>
       </c>
@@ -17041,7 +17787,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:8">
       <c r="A496" s="1">
         <v>43325</v>
       </c>
@@ -17067,7 +17813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:8">
       <c r="A497" s="1">
         <v>43326</v>
       </c>
@@ -17093,7 +17839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:8">
       <c r="A498" s="1">
         <v>43327</v>
       </c>
@@ -17119,7 +17865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:8">
       <c r="A499" s="1">
         <v>43328</v>
       </c>
@@ -17145,7 +17891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:8">
       <c r="A500" s="1">
         <v>43329</v>
       </c>
@@ -17171,7 +17917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:8">
       <c r="A501" s="1">
         <v>43330</v>
       </c>
@@ -17197,7 +17943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:8">
       <c r="A502" s="1">
         <v>43331</v>
       </c>
@@ -17223,7 +17969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:8">
       <c r="A503" s="1">
         <v>43332</v>
       </c>
@@ -17249,7 +17995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:8">
       <c r="A504" s="1">
         <v>43333</v>
       </c>
@@ -17275,7 +18021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:8">
       <c r="A505" s="1">
         <v>43334</v>
       </c>
@@ -17301,7 +18047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:8">
       <c r="A506" s="1">
         <v>43335</v>
       </c>
@@ -17327,7 +18073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:8">
       <c r="A507" s="1">
         <v>43336</v>
       </c>
@@ -17353,7 +18099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:8">
       <c r="A508" s="1">
         <v>43337</v>
       </c>
@@ -17379,7 +18125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:8">
       <c r="A509" s="1">
         <v>43338</v>
       </c>
@@ -17405,7 +18151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:8">
       <c r="A510" s="1">
         <v>43339</v>
       </c>
@@ -17431,7 +18177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:8">
       <c r="A511" s="1">
         <v>43340</v>
       </c>
@@ -17457,7 +18203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:8">
       <c r="A512" s="1">
         <v>43341</v>
       </c>
@@ -17483,7 +18229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:8">
       <c r="A513" s="1">
         <v>43344</v>
       </c>
@@ -17509,7 +18255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:8">
       <c r="A514" s="1">
         <v>43345</v>
       </c>
@@ -17535,7 +18281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:8">
       <c r="A515" s="1">
         <v>43346</v>
       </c>
@@ -17561,7 +18307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:8">
       <c r="A516" s="1">
         <v>43347</v>
       </c>
@@ -17587,7 +18333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:8">
       <c r="A517" s="1">
         <v>43348</v>
       </c>
@@ -17613,7 +18359,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:8">
       <c r="A518" s="1">
         <v>43349</v>
       </c>
@@ -17639,7 +18385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:8">
       <c r="A519" s="1">
         <v>43350</v>
       </c>
@@ -17665,7 +18411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:8">
       <c r="A520" s="1">
         <v>43351</v>
       </c>
@@ -17691,7 +18437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:8">
       <c r="A521" s="1">
         <v>43352</v>
       </c>
@@ -17717,7 +18463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:8">
       <c r="A522" s="1">
         <v>43353</v>
       </c>
@@ -17743,7 +18489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:8">
       <c r="A523" s="1">
         <v>43354</v>
       </c>
@@ -17769,7 +18515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:8">
       <c r="A524" s="1">
         <v>43355</v>
       </c>
@@ -17795,7 +18541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:8">
       <c r="A525" s="1">
         <v>43356</v>
       </c>
@@ -17821,7 +18567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:8">
       <c r="A526" s="1">
         <v>43357</v>
       </c>
@@ -17847,7 +18593,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:8">
       <c r="A527" s="1">
         <v>43358</v>
       </c>
@@ -17873,7 +18619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:8">
       <c r="A528" s="1">
         <v>43359</v>
       </c>
@@ -17899,7 +18645,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:8">
       <c r="A529" s="1">
         <v>43360</v>
       </c>
@@ -17925,7 +18671,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:8">
       <c r="A530" s="1">
         <v>43361</v>
       </c>
@@ -17951,7 +18697,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:8">
       <c r="A531" s="1">
         <v>43362</v>
       </c>
@@ -17977,7 +18723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:8">
       <c r="A532" s="1">
         <v>43363</v>
       </c>
@@ -18003,7 +18749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:8">
       <c r="A533" s="1">
         <v>43364</v>
       </c>
@@ -18029,7 +18775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:8">
       <c r="A534" s="1">
         <v>43365</v>
       </c>
@@ -18055,7 +18801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:8">
       <c r="A535" s="1">
         <v>43366</v>
       </c>
@@ -18081,7 +18827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:8">
       <c r="A536" s="1">
         <v>43367</v>
       </c>
@@ -18107,7 +18853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:8">
       <c r="A537" s="1">
         <v>43368</v>
       </c>
@@ -18133,7 +18879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:8">
       <c r="A538" s="1">
         <v>43369</v>
       </c>
@@ -18159,7 +18905,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:8">
       <c r="A539" s="1">
         <v>43370</v>
       </c>
@@ -18185,7 +18931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:8">
       <c r="A540" s="1">
         <v>43371</v>
       </c>
@@ -18213,41 +18959,55 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.07421875" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C1" s="2">
+    <row r="1" spans="1:20">
+      <c r="C1" s="3">
         <v>2017</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3">
         <v>2018</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4">
+        <v>43070</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -18284,12 +19044,30 @@
       <c r="N2">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>42979</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3">
@@ -18328,12 +19106,30 @@
       <c r="N3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O3">
+        <v>421</v>
+      </c>
+      <c r="P3">
+        <v>164</v>
+      </c>
+      <c r="Q3">
+        <v>904</v>
+      </c>
+      <c r="R3">
+        <v>4409</v>
+      </c>
+      <c r="S3">
+        <v>2152</v>
+      </c>
+      <c r="T3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>42980</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
       </c>
@@ -18373,12 +19169,30 @@
       <c r="N4">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O4">
+        <v>328</v>
+      </c>
+      <c r="P4">
+        <v>128</v>
+      </c>
+      <c r="Q4">
+        <v>730</v>
+      </c>
+      <c r="R4">
+        <v>2795</v>
+      </c>
+      <c r="S4">
+        <v>1100</v>
+      </c>
+      <c r="T4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>42981</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B32" si="0">B4+1</f>
         <v>3</v>
       </c>
@@ -18418,12 +19232,30 @@
       <c r="N5">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O5">
+        <v>354</v>
+      </c>
+      <c r="P5">
+        <v>116</v>
+      </c>
+      <c r="Q5">
+        <v>612</v>
+      </c>
+      <c r="R5">
+        <v>2314</v>
+      </c>
+      <c r="S5">
+        <v>958</v>
+      </c>
+      <c r="T5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>42982</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -18463,12 +19295,30 @@
       <c r="N6">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O6">
+        <v>366</v>
+      </c>
+      <c r="P6">
+        <v>127</v>
+      </c>
+      <c r="Q6">
+        <v>707</v>
+      </c>
+      <c r="R6">
+        <v>3935</v>
+      </c>
+      <c r="S6">
+        <v>2185</v>
+      </c>
+      <c r="T6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>42983</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -18508,12 +19358,30 @@
       <c r="N7">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O7">
+        <v>402</v>
+      </c>
+      <c r="P7">
+        <v>183</v>
+      </c>
+      <c r="Q7">
+        <v>771</v>
+      </c>
+      <c r="R7">
+        <v>4076</v>
+      </c>
+      <c r="S7">
+        <v>2293</v>
+      </c>
+      <c r="T7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>42984</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -18553,12 +19421,30 @@
       <c r="N8">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O8">
+        <v>331</v>
+      </c>
+      <c r="P8">
+        <v>131</v>
+      </c>
+      <c r="Q8">
+        <v>693</v>
+      </c>
+      <c r="R8">
+        <v>2508</v>
+      </c>
+      <c r="S8">
+        <v>1089</v>
+      </c>
+      <c r="T8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>42985</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -18598,12 +19484,30 @@
       <c r="N9">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O9">
+        <v>334</v>
+      </c>
+      <c r="P9">
+        <v>163</v>
+      </c>
+      <c r="Q9">
+        <v>698</v>
+      </c>
+      <c r="R9">
+        <v>3008</v>
+      </c>
+      <c r="S9">
+        <v>1608</v>
+      </c>
+      <c r="T9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>42986</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -18643,12 +19547,30 @@
       <c r="N10">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O10">
+        <v>131</v>
+      </c>
+      <c r="P10">
+        <v>126</v>
+      </c>
+      <c r="Q10">
+        <v>570</v>
+      </c>
+      <c r="R10">
+        <v>2335</v>
+      </c>
+      <c r="S10">
+        <v>1044</v>
+      </c>
+      <c r="T10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>42987</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -18688,12 +19610,30 @@
       <c r="N11">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O11">
+        <v>35</v>
+      </c>
+      <c r="P11">
+        <v>145</v>
+      </c>
+      <c r="Q11">
+        <v>685</v>
+      </c>
+      <c r="R11">
+        <v>2500</v>
+      </c>
+      <c r="S11">
+        <v>1174</v>
+      </c>
+      <c r="T11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>42988</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -18733,12 +19673,30 @@
       <c r="N12">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>107</v>
+      </c>
+      <c r="Q12">
+        <v>603</v>
+      </c>
+      <c r="R12">
+        <v>1826</v>
+      </c>
+      <c r="S12">
+        <v>907</v>
+      </c>
+      <c r="T12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>42989</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -18778,12 +19736,30 @@
       <c r="N13">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O13">
+        <v>254</v>
+      </c>
+      <c r="P13">
+        <v>99</v>
+      </c>
+      <c r="Q13">
+        <v>616</v>
+      </c>
+      <c r="R13">
+        <v>3279</v>
+      </c>
+      <c r="S13">
+        <v>2020</v>
+      </c>
+      <c r="T13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>42990</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -18823,12 +19799,30 @@
       <c r="N14">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O14">
+        <v>379</v>
+      </c>
+      <c r="P14">
+        <v>159</v>
+      </c>
+      <c r="Q14">
+        <v>682</v>
+      </c>
+      <c r="R14">
+        <v>3828</v>
+      </c>
+      <c r="S14">
+        <v>2655</v>
+      </c>
+      <c r="T14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>42991</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -18868,12 +19862,30 @@
       <c r="N15">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O15">
+        <v>284</v>
+      </c>
+      <c r="P15">
+        <v>139</v>
+      </c>
+      <c r="Q15">
+        <v>831</v>
+      </c>
+      <c r="R15">
+        <v>4087</v>
+      </c>
+      <c r="S15">
+        <v>2381</v>
+      </c>
+      <c r="T15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>42992</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -18913,12 +19925,30 @@
       <c r="N16">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O16">
+        <v>475</v>
+      </c>
+      <c r="P16">
+        <v>167</v>
+      </c>
+      <c r="Q16">
+        <v>882</v>
+      </c>
+      <c r="R16">
+        <v>4200</v>
+      </c>
+      <c r="S16">
+        <v>2441</v>
+      </c>
+      <c r="T16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>42993</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -18958,12 +19988,30 @@
       <c r="N17">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O17">
+        <v>267</v>
+      </c>
+      <c r="P17">
+        <v>191</v>
+      </c>
+      <c r="Q17">
+        <v>956</v>
+      </c>
+      <c r="R17">
+        <v>4255</v>
+      </c>
+      <c r="S17">
+        <v>2607</v>
+      </c>
+      <c r="T17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>42994</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -19003,12 +20051,30 @@
       <c r="N18">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O18">
+        <v>216</v>
+      </c>
+      <c r="P18">
+        <v>165</v>
+      </c>
+      <c r="Q18">
+        <v>963</v>
+      </c>
+      <c r="R18">
+        <v>3435</v>
+      </c>
+      <c r="S18">
+        <v>1594</v>
+      </c>
+      <c r="T18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>42995</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -19048,12 +20114,30 @@
       <c r="N19">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O19">
+        <v>120</v>
+      </c>
+      <c r="P19">
+        <v>142</v>
+      </c>
+      <c r="Q19">
+        <v>838</v>
+      </c>
+      <c r="R19">
+        <v>2843</v>
+      </c>
+      <c r="S19">
+        <v>1562</v>
+      </c>
+      <c r="T19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>42996</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -19093,12 +20177,30 @@
       <c r="N20">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O20">
+        <v>271</v>
+      </c>
+      <c r="P20">
+        <v>130</v>
+      </c>
+      <c r="Q20">
+        <v>821</v>
+      </c>
+      <c r="R20">
+        <v>3878</v>
+      </c>
+      <c r="S20">
+        <v>2369</v>
+      </c>
+      <c r="T20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>42997</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -19138,12 +20240,30 @@
       <c r="N21">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O21">
+        <v>268</v>
+      </c>
+      <c r="P21">
+        <v>191</v>
+      </c>
+      <c r="Q21">
+        <v>847</v>
+      </c>
+      <c r="R21">
+        <v>4370</v>
+      </c>
+      <c r="S21">
+        <v>2575</v>
+      </c>
+      <c r="T21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>42998</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -19183,12 +20303,30 @@
       <c r="N22">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O22">
+        <v>197</v>
+      </c>
+      <c r="P22">
+        <v>164</v>
+      </c>
+      <c r="Q22">
+        <v>972</v>
+      </c>
+      <c r="R22">
+        <v>4317</v>
+      </c>
+      <c r="S22">
+        <v>2910</v>
+      </c>
+      <c r="T22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>42999</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -19228,12 +20366,30 @@
       <c r="N23">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O23">
+        <v>205</v>
+      </c>
+      <c r="P23">
+        <v>190</v>
+      </c>
+      <c r="Q23">
+        <v>1023</v>
+      </c>
+      <c r="R23">
+        <v>4462</v>
+      </c>
+      <c r="S23">
+        <v>2782</v>
+      </c>
+      <c r="T23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>43000</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -19273,12 +20429,30 @@
       <c r="N24">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O24">
+        <v>315</v>
+      </c>
+      <c r="P24">
+        <v>206</v>
+      </c>
+      <c r="Q24">
+        <v>1024</v>
+      </c>
+      <c r="R24">
+        <v>4245</v>
+      </c>
+      <c r="S24">
+        <v>2424</v>
+      </c>
+      <c r="T24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>43001</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -19318,12 +20492,30 @@
       <c r="N25">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O25">
+        <v>276</v>
+      </c>
+      <c r="P25">
+        <v>190</v>
+      </c>
+      <c r="Q25">
+        <v>806</v>
+      </c>
+      <c r="R25">
+        <v>2710</v>
+      </c>
+      <c r="S25">
+        <v>1364</v>
+      </c>
+      <c r="T25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>43002</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -19363,12 +20555,30 @@
       <c r="N26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O26">
+        <v>236</v>
+      </c>
+      <c r="P26">
+        <v>100</v>
+      </c>
+      <c r="Q26">
+        <v>590</v>
+      </c>
+      <c r="R26">
+        <v>1493</v>
+      </c>
+      <c r="S26">
+        <v>1049</v>
+      </c>
+      <c r="T26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>43003</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -19408,12 +20618,30 @@
       <c r="N27">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O27">
+        <v>295</v>
+      </c>
+      <c r="P27">
+        <v>75</v>
+      </c>
+      <c r="Q27">
+        <v>426</v>
+      </c>
+      <c r="R27">
+        <v>818</v>
+      </c>
+      <c r="S27">
+        <v>483</v>
+      </c>
+      <c r="T27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>43004</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -19453,12 +20681,30 @@
       <c r="N28">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O28">
+        <v>120</v>
+      </c>
+      <c r="P28">
+        <v>91</v>
+      </c>
+      <c r="Q28">
+        <v>573</v>
+      </c>
+      <c r="R28">
+        <v>2177</v>
+      </c>
+      <c r="S28">
+        <v>1310</v>
+      </c>
+      <c r="T28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>43005</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -19498,12 +20744,30 @@
       <c r="N29">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O29">
+        <v>364</v>
+      </c>
+      <c r="P29">
+        <v>132</v>
+      </c>
+      <c r="Q29">
+        <v>534</v>
+      </c>
+      <c r="R29">
+        <v>2777</v>
+      </c>
+      <c r="S29">
+        <v>1549</v>
+      </c>
+      <c r="T29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>43006</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -19543,12 +20807,30 @@
       <c r="N30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O30">
+        <v>412</v>
+      </c>
+      <c r="P30">
+        <v>128</v>
+      </c>
+      <c r="Q30">
+        <v>742</v>
+      </c>
+      <c r="R30">
+        <v>3081</v>
+      </c>
+      <c r="S30">
+        <v>1665</v>
+      </c>
+      <c r="T30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>43007</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -19570,12 +20852,30 @@
       <c r="H31">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O31">
+        <v>414</v>
+      </c>
+      <c r="P31">
+        <v>182</v>
+      </c>
+      <c r="Q31">
+        <v>723</v>
+      </c>
+      <c r="R31">
+        <v>3272</v>
+      </c>
+      <c r="S31">
+        <v>1829</v>
+      </c>
+      <c r="T31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>43008</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -19597,14 +20897,58 @@
       <c r="H32">
         <v>63</v>
       </c>
+      <c r="O32">
+        <v>264</v>
+      </c>
+      <c r="P32">
+        <v>124</v>
+      </c>
+      <c r="Q32">
+        <v>675</v>
+      </c>
+      <c r="R32">
+        <v>2320</v>
+      </c>
+      <c r="S32">
+        <v>1266</v>
+      </c>
+      <c r="T32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="15:20">
+      <c r="O33">
+        <v>410</v>
+      </c>
+      <c r="P33">
+        <v>69</v>
+      </c>
+      <c r="Q33">
+        <v>414</v>
+      </c>
+      <c r="R33">
+        <v>1585</v>
+      </c>
+      <c r="S33">
+        <v>802</v>
+      </c>
+      <c r="T33">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="C1:H1"/>
+    <mergeCell ref="O1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>